--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization-territorial.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization-territorial.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization-territorial.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization-territorial.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
